--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001568.937354796</v>
+        <v>2999311.915445713</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>143.9481875210541</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>52.3315992629827</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.26252137233833</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>122.2599453826698</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206852</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>110.7937263796629</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35.67764259955349</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37.83808333974872</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.04875807993785</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7268717888059</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>121.5845169204575</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.4425172951278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590283</v>
+        <v>118.9645187111852</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>194.9437214015082</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>181.1375494785993</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>200.2234249616286</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,16 +2530,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>181.1375494785987</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>200.1941765543139</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,16 +2767,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486463</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>125.7070030407804</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744753</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>34.70358683202937</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>10.60871743476455</v>
       </c>
       <c r="U34" t="n">
-        <v>181.1375494785993</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>178.7757248935317</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>163.7952833693891</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164181</v>
+        <v>87.87589738164176</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.7127700430363</v>
       </c>
       <c r="T37" t="n">
-        <v>131.2065893217296</v>
+        <v>218.4926939877636</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>285.1555829172073</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>285.4667430481854</v>
       </c>
       <c r="X37" t="n">
         <v>224.6534001006316</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>217.5283980636892</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534548</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996183</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433876</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572726</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797668</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404343</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124562</v>
+        <v>49.37728379124621</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797668</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.312709242129</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353781</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353781</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,10 +4352,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1164.312709242129</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1164.312709242129</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>854.9003034538794</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>485.9377865134676</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>127.6720879067171</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>127.6720879067171</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>120.7265871575137</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961046</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>106.8031830961046</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2648.399069430002</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2648.399069430002</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2648.399069430002</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2648.399069430002</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V5" t="n">
-        <v>2317.336182086431</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1964.567526816317</v>
+        <v>1618.505393690771</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>854.9003034538794</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>359.423311480511</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>359.423311480511</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>709.1532345052515</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="C8" t="n">
-        <v>340.1907175648398</v>
+        <v>1299.526533804879</v>
       </c>
       <c r="D8" t="n">
-        <v>340.1907175648398</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2606.082378720884</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2352.320593358976</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2021.257706015405</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="X8" t="n">
-        <v>1485.892406545185</v>
+        <v>1668.489050745291</v>
       </c>
       <c r="Y8" t="n">
-        <v>1095.753074569373</v>
+        <v>1668.489050745291</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5030,7 +5030,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,28 +5039,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>932.5990189467745</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,7 +5072,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5084,7 +5084,7 @@
         <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>533.527047512441</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="C13" t="n">
-        <v>364.5908645845341</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D13" t="n">
-        <v>364.5908645845341</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>364.5908645845341</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>364.5908645845341</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5203,10 +5203,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5218,10 +5218,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.957642384228</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>935.9680914862108</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y13" t="n">
-        <v>715.1755123426807</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175504</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.596327402151</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O14" t="n">
-        <v>3907.560977731605</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4302.335344088783</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5315,7 +5315,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5413,25 +5413,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5440,46 +5440,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838514</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X16" t="n">
-        <v>481.696890485834</v>
+        <v>391.8664332433628</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998328</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5510,7 +5510,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5519,46 +5519,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5583,13 +5583,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736755</v>
+        <v>659.9741347416142</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736755</v>
+        <v>659.9741347416142</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736755</v>
+        <v>509.8574953292785</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736755</v>
+        <v>361.9444017468854</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736755</v>
+        <v>361.9444017468854</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1256.147659358071</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>1001.463171152184</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W19" t="n">
-        <v>712.0460011152229</v>
+        <v>841.6225995718537</v>
       </c>
       <c r="X19" t="n">
-        <v>484.0564502172056</v>
+        <v>841.6225995718537</v>
       </c>
       <c r="Y19" t="n">
-        <v>263.2638710736755</v>
+        <v>841.6225995718537</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5762,37 +5762,37 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027647</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232733</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
         <v>2760.816196754298</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468569</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839444</v>
+        <v>411.3871648742115</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839444</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839444</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839444</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5914,46 +5914,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718537</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>613.6330486738364</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786342</v>
+        <v>411.3871648742115</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
         <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N23" t="n">
-        <v>3316.966490094645</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4246.247123084118</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4704.725325593106</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6063,7 +6063,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839444</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839444</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839444</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839444</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6178,19 +6178,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>961.7413024303746</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>740.9487232868445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143016</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.2139837551626</v>
@@ -6221,55 +6221,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1898.858917622688</v>
+        <v>1617.66584484778</v>
       </c>
       <c r="M26" t="n">
-        <v>2432.390822294613</v>
+        <v>2151.197749519705</v>
       </c>
       <c r="N26" t="n">
-        <v>2979.169639353395</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>782.2963834300775</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="29">
@@ -6440,52 +6440,52 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4243.923885728434</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839445</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.962769867859</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437385</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1418.006381145423</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.321892939536</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201815</v>
+        <v>873.9047229025748</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221641</v>
+        <v>645.9151720045575</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.209499278634</v>
+        <v>425.1225928610273</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,52 +6698,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3195.001976422504</v>
+        <v>3254.420735780954</v>
       </c>
       <c r="O32" t="n">
-        <v>3697.97444730184</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
@@ -6783,7 +6783,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,13 +6816,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6877,31 +6877,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
         <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1664.111248492326</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1375.008381617969</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>1120.323893412082</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>1120.323893412082</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>892.334342514065</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>671.5417633705349</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390123</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839444</v>
+        <v>261.0108156295955</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308515</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152492</v>
+        <v>346.7622353152494</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.3677264992671</v>
       </c>
       <c r="M37" t="n">
         <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931659</v>
       </c>
       <c r="P37" t="n">
         <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
         <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1685.326515640715</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1552.794607234928</v>
+        <v>1464.626824743985</v>
       </c>
       <c r="U37" t="n">
-        <v>1264.758664894314</v>
+        <v>1176.590882403371</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.14110122217</v>
+        <v>1176.590882403371</v>
       </c>
       <c r="W37" t="n">
-        <v>722.7908557189527</v>
+        <v>888.2406369001536</v>
       </c>
       <c r="X37" t="n">
-        <v>495.8682293546783</v>
+        <v>661.3180105358792</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.1425747448912</v>
+        <v>441.5923559260922</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7169,55 +7169,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>741.1020862043858</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1605.620901857741</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2584.171204687569</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N38" t="n">
-        <v>3130.950021746351</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7242,31 +7242,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
         <v>2436.460902902952</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215043</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416706</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160449</v>
+        <v>244.2046325160437</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819759</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>187.1890521477366</v>
@@ -7354,19 +7354,19 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195772</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
         <v>1276.596863849072</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899128</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036708</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.328657580449</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807095</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215045</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416708</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774083</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430883</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932512</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160449</v>
+        <v>244.2046325160454</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819759</v>
+        <v>145.4370786819765</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,13 +7570,13 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490194</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.746804049922</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
-        <v>1191.409234901877</v>
+        <v>1191.409234901878</v>
       </c>
       <c r="N43" t="n">
         <v>1579.322996860149</v>
@@ -7588,31 +7588,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123955</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604456</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.713999703671</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="44">
@@ -7640,34 +7640,34 @@
         <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390103</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7758,7 +7758,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430891</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
-        <v>364.457836193252</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160442</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
         <v>145.4370786819758</v>
@@ -7804,10 +7804,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
         <v>800.7468040499225</v>
@@ -7825,7 +7825,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036717</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050811</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>317.5146261106144</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8702,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>79.70465870845339</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.3976710547479</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,25 +9167,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476847</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,10 +9410,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>410.4190035206658</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9641,25 +9641,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>258.6211785616921</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>14.45386895940618</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>344.7025836476838</v>
+        <v>384.814589375507</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400261</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>163.3991441460101</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>248.8012738805276</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476862</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>124.0833809162823</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10838,10 +10838,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>229.1155640189935</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>22.5199493098219</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>44.44129133857074</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.14213605696702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>47.06128954784299</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>91.26811680410474</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>18.36122839046621</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.0742887270142</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>51.94346676951412</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>100.0026523482568</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696662</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>251.5082513735836</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.9402318414047</v>
       </c>
       <c r="U34" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>2.395282440833136</v>
       </c>
       <c r="D37" t="n">
         <v>147.5592177298068</v>
@@ -25330,7 +25330,7 @@
         <v>143.6987596259152</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143258</v>
+        <v>95.29616512143252</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>87.28610466603406</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354224</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.577404873387422e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.016394435282564e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="F2" t="n">
+        <v>655184.9483635222</v>
+      </c>
+      <c r="G2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="H2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="F2" t="n">
-        <v>655184.9483635224</v>
-      </c>
-      <c r="G2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="H2" t="n">
-        <v>655184.9483635223</v>
-      </c>
       <c r="I2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="J2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="K2" t="n">
         <v>655184.9483635225</v>
       </c>
       <c r="L2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
       <c r="M2" t="n">
-        <v>655683.5513909026</v>
+        <v>655683.5513909024</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380329</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="O2" t="n">
         <v>677359.4601380337</v>
       </c>
       <c r="P2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.460138034</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696693</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414973</v>
+        <v>36735.10506414957</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.540033842204138e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,13 +26418,13 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
@@ -26433,31 +26433,31 @@
         <v>18148.49231918989</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.4923191899</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>18148.49231918995</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="M4" t="n">
-        <v>18496.05294811454</v>
+        <v>18496.0529481146</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740891</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
         <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.653297409</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371367</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371367</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955464</v>
+        <v>96472.31657955462</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970486</v>
+        <v>-178816.1839970484</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.6952174961</v>
+        <v>411151.6952174957</v>
       </c>
       <c r="D6" t="n">
-        <v>411151.695217496</v>
+        <v>411151.6952174963</v>
       </c>
       <c r="E6" t="n">
-        <v>-186724.4762027879</v>
+        <v>-186791.6716930135</v>
       </c>
       <c r="F6" t="n">
-        <v>540652.9377906189</v>
+        <v>540585.7423003928</v>
       </c>
       <c r="G6" t="n">
-        <v>540652.937790619</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="H6" t="n">
-        <v>540652.9377906187</v>
+        <v>540585.7423003931</v>
       </c>
       <c r="I6" t="n">
-        <v>540652.937790619</v>
+        <v>540585.7423003933</v>
       </c>
       <c r="J6" t="n">
-        <v>364229.718598026</v>
+        <v>364162.5231078003</v>
       </c>
       <c r="K6" t="n">
-        <v>540652.9377906191</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="L6" t="n">
-        <v>540652.9377906187</v>
+        <v>540585.7423003932</v>
       </c>
       <c r="M6" t="n">
-        <v>410227.8627935642</v>
+        <v>410162.1782216029</v>
       </c>
       <c r="N6" t="n">
-        <v>506686.0307623721</v>
+        <v>506686.0307623725</v>
       </c>
       <c r="O6" t="n">
-        <v>543421.1358265228</v>
+        <v>543421.1358265227</v>
       </c>
       <c r="P6" t="n">
-        <v>543421.1358265218</v>
+        <v>543421.135826523</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018696</v>
+        <v>45.91888133018697</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,19 +26987,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>225.7829131574149</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>99.59971698187852</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.215881202473398</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>45.04985687638114</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031428</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>271.1366436925989</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>138.738070209418</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.9938968421886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>196.2331161620399</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405531</v>
+        <v>1.056255288405573</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32798,7 +32798,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026424</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34778,10 +34778,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
         <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>654.7059126660149</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,16 +35422,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35571,7 +35571,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>587.7576595966725</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>355.1919758584674</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35805,19 +35805,19 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35887,25 +35887,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359038</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36130,10 +36130,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>962.7208389335773</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359038</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36142,7 +36142,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36361,25 +36361,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>766.6741794499112</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>74.06706750163096</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>800.2926980400159</v>
+        <v>840.4047037678391</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282451</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>414.1934489497296</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306619</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443195</v>
@@ -36999,7 +36999,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226397</v>
@@ -37008,7 +37008,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>801.103109293439</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>588.5891319493445</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359052</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597766</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147173</v>
+        <v>46.63467190147179</v>
       </c>
       <c r="K37" t="n">
         <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818894</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559457</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110452</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.013326433516</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629915</v>
+        <v>79.45049382629922</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>461.2746674716828</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37558,10 +37558,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,10 +37716,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>427.0116978485627</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165868</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887905</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861325</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>737.1685649072126</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597567</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
